--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C24A0-C945-4C4F-9350-372CE08E1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD28627-5122-4748-A0CC-ACE8F065AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -958,17 +958,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,37 +1332,37 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B5E0BD-8988-4E2E-A764-D17CF34AAB6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB69BD-0701-4D6F-BC45-E46460A7E3EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,34 @@
   </si>
   <si>
     <t xml:space="preserve">しるし </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +325,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -338,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +406,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +770,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="7">
@@ -742,7 +787,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -759,7 +804,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -776,7 +821,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -793,7 +838,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -810,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="7">
@@ -827,7 +872,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="7">
@@ -844,7 +889,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="7">
@@ -861,7 +906,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="7">
@@ -878,8 +923,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>11</v>
+      <c r="A12" s="9">
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>10101</v>
@@ -895,8 +940,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>12</v>
+      <c r="A13" s="9">
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>10102</v>
@@ -912,8 +957,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>13</v>
+      <c r="A14" s="9">
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>10103</v>
@@ -929,8 +974,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>14</v>
+      <c r="A15" s="9">
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>10104</v>
@@ -946,8 +991,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>15</v>
+      <c r="A16" s="9">
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>10105</v>
@@ -963,70 +1008,121 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>16</v>
+      <c r="A17" s="9">
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>10106</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10107</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10108</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10109</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
         <v>10201</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
         <v>10202</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
         <v>10203</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB69BD-0701-4D6F-BC45-E46460A7E3EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE664B-B543-4698-95AF-262377E81013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,23 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -333,8 +316,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +365,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -374,9 +380,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -387,12 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,11 +423,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,7 +746,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -735,394 +758,394 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>10001</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>10002</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>10003</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>10004</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>10005</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>10006</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>10007</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>10008</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>10009</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>10101</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>10102</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>10103</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>10104</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>10105</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>10106</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>10107</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>10108</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>10109</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>10201</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>10202</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>10203</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE664B-B543-4698-95AF-262377E81013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A2B42-3D0F-4FB1-AD2F-E07C72F40BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,86 @@
   </si>
   <si>
     <t>New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊び</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音楽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マナーモード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多言語システム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すじ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -386,6 +466,21 @@
       <top/>
       <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,31 +500,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,409 +838,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>10001</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>10002</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>10003</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>10004</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>10005</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>10006</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>10007</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>10008</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>10009</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>10101</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>10102</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>10103</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>10104</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>10105</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>10106</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>10107</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>10108</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>10109</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
+        <v>10110</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>10111</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10112</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10113</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>10114</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10115</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>10116</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
         <v>10201</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>10202</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10203</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>10202</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10203</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A2B42-3D0F-4FB1-AD2F-E07C72F40BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0DD95-EDF3-4568-B4A7-4DA44F60CC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0DD95-EDF3-4568-B4A7-4DA44F60CC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61C532-4F2B-4859-9B51-35E40450DFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,38 @@
   </si>
   <si>
     <t>すじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1312,54 +1344,105 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
-        <v>10201</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="6">
+        <v>10117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="8">
-        <v>10202</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="6">
+        <v>10118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
+        <v>10119</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <v>10201</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>10202</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
         <v>10203</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61C532-4F2B-4859-9B51-35E40450DFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097424E1-B15C-421D-B4C7-5BA56AE69DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,6 +409,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -872,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097424E1-B15C-421D-B4C7-5BA56AE69DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBA7FB-68E0-40B2-A454-54EC0E85EA7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,130 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankinglist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,14 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -446,31 +562,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -482,6 +589,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,42 +635,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,577 +968,578 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>10003</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>10004</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>10005</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>10006</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>10007</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>10008</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>10009</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>10101</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>10102</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>10103</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>10104</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>10105</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>10106</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
-        <v>10107</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
-        <v>10108</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
-        <v>10109</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <v>10110</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>10111</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
-        <v>10112</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>10113</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
-        <v>10114</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
-        <v>10115</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
-        <v>10116</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>10117</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
-        <v>10118</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
-        <v>10119</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="8">
-        <v>10201</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="8">
-        <v>10202</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="8">
-        <v>10203</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="1" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBA7FB-68E0-40B2-A454-54EC0E85EA7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1EF019-69B5-4438-B33F-FDDECC03F844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,26 @@
   </si>
   <si>
     <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,290 +1019,290 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>60</v>
@@ -1290,16 +1310,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>60</v>
@@ -1307,169 +1327,169 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>89</v>
@@ -1477,69 +1497,86 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Source/Excel/language.xlsx
+++ b/Source/Excel/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1EF019-69B5-4438-B33F-FDDECC03F844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD9870-8DEF-417F-8372-A4EAEA7CE59B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32130" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="259">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +519,541 @@
   </si>
   <si>
     <t>日文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatic login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動ログイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置＃ハイチ＃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログイン＃ログイン＃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワードを記憶する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タスク＃タスク＃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包裹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブラックリスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申し込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コレクション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と戦う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断片化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじを引く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撃ち殺す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チャージ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に報いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の売れ行きを促進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チェックイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +1061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +1110,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -613,7 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,7 +1200,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,19 +1555,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1053,21 +1587,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1075,16 +1609,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1092,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1109,50 +1643,50 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>98</v>
+      <c r="B9" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1160,16 +1694,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1177,50 +1711,50 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
+      <c r="B13" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1228,16 +1762,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1245,16 +1779,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1262,16 +1796,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1279,16 +1813,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1296,16 +1830,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1313,16 +1847,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1330,16 +1864,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1347,16 +1881,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1364,16 +1898,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1381,33 +1915,33 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>113</v>
+      <c r="B24" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1415,16 +1949,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1432,16 +1966,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1449,16 +1983,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1466,16 +2000,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1483,33 +2017,33 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>119</v>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1517,50 +2051,50 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
+      <c r="B33" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1568,16 +2102,917 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
         <v>57</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
